--- a/standup.xlsx
+++ b/standup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitpage\VirtualRoyalty.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3E7A0A-15F6-4B96-8300-83C1991E6148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E86B8A1-0035-4970-BBC3-DC3C3143CCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Комик</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>Bill Hicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [2010](https://yadi.sk/i/Bax7ktZHIG-LZA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         [2013](https://www.youtube.com/watch?v=7lbSEG1etfc)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [2015](https://vk.com/im?sel=66628440&amp;z=video-53358766_456239114%2F06fcdbe6302c6de0b7) </t>
+  </si>
+  <si>
+    <t>One Night Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1991](https://vk.com/video?q=%D0%B1%D0%B8%D0%BB%D0%BB&amp;z=video136761433_170184290) </t>
+  </si>
+  <si>
+    <t>Ссылка</t>
   </si>
 </sst>
 </file>
@@ -375,22 +396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +432,11 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -429,8 +455,11 @@
       <c r="F2" s="1">
         <v>10</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,8 +478,11 @@
       <c r="F3" s="1">
         <v>10</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -468,6 +500,32 @@
       </c>
       <c r="F4" s="1">
         <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1991</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/standup.xlsx
+++ b/standup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitpage\VirtualRoyalty.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E86B8A1-0035-4970-BBC3-DC3C3143CCF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A1259-92E1-4EEA-9BB7-8D5D9E640959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Комик</t>
   </si>
@@ -54,40 +54,65 @@
     <t>Классика</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>Bill Hicks</t>
   </si>
   <si>
-    <t xml:space="preserve">    [2010](https://yadi.sk/i/Bax7ktZHIG-LZA) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         [2013](https://www.youtube.com/watch?v=7lbSEG1etfc)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        [2015](https://vk.com/im?sel=66628440&amp;z=video-53358766_456239114%2F06fcdbe6302c6de0b7) </t>
-  </si>
-  <si>
     <t>One Night Stand</t>
   </si>
   <si>
-    <t xml:space="preserve"> [1991](https://vk.com/video?q=%D0%B1%D0%B8%D0%BB%D0%BB&amp;z=video136761433_170184290) </t>
-  </si>
-  <si>
     <t>Ссылка</t>
+  </si>
+  <si>
+    <t>ИМХО</t>
+  </si>
+  <si>
+    <t>Doug Stanhope</t>
+  </si>
+  <si>
+    <t>Beer Hall Putsch</t>
+  </si>
+  <si>
+    <t>[2010](https://yadi.sk/i/Bax7ktZHIG-LZA)</t>
+  </si>
+  <si>
+    <t>[2013](https://www.youtube.com/watch?v=7lbSEG1etfc)</t>
+  </si>
+  <si>
+    <t>[2015](https://vk.com/im?sel=66628440&amp;z=video-53358766_456239114%2F06fcdbe6302c6de0b7)</t>
+  </si>
+  <si>
+    <t>[1991](https://vk.com/video?q=%D0%B1%D0%B8%D0%BB%D0%BB&amp;z=video136761433_170184290)</t>
+  </si>
+  <si>
+    <t>[2013](https://vk.com/im?peers=250264503_136761433_c163&amp;sel=66628440&amp;z=video-30758352_456239234%2Fc4bd745be4f72b3bd1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,14 +132,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD41"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,122 +465,146 @@
     <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1991</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
+    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1991</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/standup.xlsx
+++ b/standup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitpage\VirtualRoyalty.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A1259-92E1-4EEA-9BB7-8D5D9E640959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1439655-8D76-4A94-B960-50A89762E7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Комик</t>
   </si>
@@ -85,13 +85,22 @@
   </si>
   <si>
     <t>[2013](https://vk.com/im?peers=250264503_136761433_c163&amp;sel=66628440&amp;z=video-30758352_456239234%2Fc4bd745be4f72b3bd1)</t>
+  </si>
+  <si>
+    <t>Jim Jefferies</t>
+  </si>
+  <si>
+    <t>Alcoholocaust</t>
+  </si>
+  <si>
+    <t>[2010](https://vk.com/videos-53358766?section=album_48128103&amp;z=video-53358766_165659304%2Fclub53358766%2Fpl_-53358766_48128103)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +124,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,28 +183,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="1" bestFit="1" customWidth="1"/>
@@ -465,146 +511,172 @@
     <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2010</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2013</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>2015</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1991</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="29.4" thickBot="1">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2013</v>
       </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="28.8" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" display="https://vk.com/videos-53358766?section=album_48128103&amp;z=video-53358766_165659304%2Fclub53358766%2Fpl_-53358766_48128103" xr:uid="{FCA38296-B0D7-4EA3-B399-911931E0395A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/standup.xlsx
+++ b/standup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitpage\VirtualRoyalty.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1439655-8D76-4A94-B960-50A89762E7E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFB501-93EB-4E98-9330-971412FD4F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Комик</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t>[2010](https://vk.com/videos-53358766?section=album_48128103&amp;z=video-53358766_165659304%2Fclub53358766%2Fpl_-53358766_48128103)</t>
+  </si>
+  <si>
+    <t>Jimmy Carr</t>
+  </si>
+  <si>
+    <t>Making People Laugh</t>
+  </si>
+  <si>
+    <t>[2010](https://vk.com/videos-53358766?section=album_48008724&amp;z=video-53358766_165016860%2Fpl_-53358766_48008724)</t>
+  </si>
+  <si>
+    <t>Daniel Sloss</t>
+  </si>
+  <si>
+    <t>Jigsaw</t>
+  </si>
+  <si>
+    <t>[2018](https://vk.com/videos-53358766?q=%D0%B4%D0%B5%D0%BD%D0%B8%D1%8D%D0%BB&amp;z=video-53358766_456239931%2Fclub53358766)</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
 </sst>
 </file>
@@ -187,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,24 +216,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -494,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -507,122 +532,122 @@
     <col min="3" max="3" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="89.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.4" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>2010</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>2013</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>2015</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>1991</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -642,18 +667,18 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="9">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
@@ -665,16 +690,62 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34.200000000000003" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.399999999999999" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="https://vk.com/videos-53358766?section=album_48128103&amp;z=video-53358766_165659304%2Fclub53358766%2Fpl_-53358766_48128103" xr:uid="{FCA38296-B0D7-4EA3-B399-911931E0395A}"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://vk.com/videos-53358766?section=album_48128103&amp;z=video-53358766_165659304%2Fclub53358766%2Fpl_-53358766_48128103" xr:uid="{1E2788EF-2879-4368-BBB8-FC789E7B789B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
